--- a/listacontato.xlsx
+++ b/listacontato.xlsx
@@ -57,8 +57,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,10 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +394,7 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,40 +405,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45656</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>45656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
-        <v>45656</v>
-      </c>
+      <c r="C4" s="1">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>